--- a/Rrt_Nawaqis_2025-08-15_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-08-15_00-00.xlsx
@@ -632,7 +632,7 @@
     <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
-    <t>Friday, 15 August, 2025 11:58 PM</t>
+    <t>Friday, 15 August, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="s" r="B7" s="8">
         <v>10</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c t="s" r="B8" s="8">
         <v>14</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c t="s" r="B9" s="8">
         <v>19</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c t="s" r="B10" s="8">
         <v>23</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c t="s" r="B11" s="8">
         <v>24</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c t="s" r="B12" s="8">
         <v>26</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c t="s" r="B13" s="8">
         <v>30</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c t="s" r="B14" s="8">
         <v>33</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c t="s" r="B15" s="8">
         <v>35</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c t="s" r="B16" s="8">
         <v>39</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c t="s" r="B17" s="8">
         <v>42</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c t="s" r="B18" s="8">
         <v>43</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c t="s" r="B19" s="8">
         <v>46</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c t="s" r="B20" s="8">
         <v>48</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="21" ht="25.5" customHeight="1">
       <c r="A21" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c t="s" r="B21" s="8">
         <v>50</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c t="s" r="B22" s="8">
         <v>52</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c t="s" r="B23" s="8">
         <v>54</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="B24" s="8">
         <v>56</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="B25" s="8">
         <v>60</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c t="s" r="B26" s="8">
         <v>62</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c t="s" r="B27" s="8">
         <v>64</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="A28" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="B28" s="8">
         <v>66</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="B29" s="8">
         <v>68</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="A30" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="B30" s="8">
         <v>70</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c t="s" r="B31" s="8">
         <v>73</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="B32" s="8">
         <v>74</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="A33" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c t="s" r="B33" s="8">
         <v>75</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="B34" s="8">
         <v>77</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="A35" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="B35" s="8">
         <v>80</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="B36" s="8">
         <v>82</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="B37" s="8">
         <v>84</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="B38" s="8">
         <v>86</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="A39" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="B39" s="8">
         <v>88</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="40" ht="24.75" customHeight="1">
       <c r="A40" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="B40" s="8">
         <v>89</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="A41" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="B41" s="8">
         <v>91</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="A42" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="B42" s="8">
         <v>93</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="A43" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="B43" s="8">
         <v>94</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="A44" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="B44" s="8">
         <v>96</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="45" ht="24.75" customHeight="1">
       <c r="A45" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="B45" s="8">
         <v>97</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="A46" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="B46" s="8">
         <v>99</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="A47" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="B47" s="8">
         <v>101</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="A48" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="B48" s="8">
         <v>103</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="A49" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="B49" s="8">
         <v>105</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="50" ht="24.75" customHeight="1">
       <c r="A50" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="B50" s="8">
         <v>107</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="A51" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="B51" s="8">
         <v>109</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="A52" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="B52" s="8">
         <v>111</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="A53" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="B53" s="8">
         <v>113</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="A54" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="B54" s="8">
         <v>116</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="55" ht="24.75" customHeight="1">
       <c r="A55" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="B55" s="8">
         <v>120</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="A56" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="B56" s="8">
         <v>122</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="57" ht="25.5" customHeight="1">
       <c r="A57" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="B57" s="8">
         <v>124</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="58" ht="24.75" customHeight="1">
       <c r="A58" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="B58" s="8">
         <v>127</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="A59" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="B59" s="8">
         <v>129</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="60" ht="24.75" customHeight="1">
       <c r="A60" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="B60" s="8">
         <v>131</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="A61" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="B61" s="8">
         <v>134</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="A62" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="B62" s="8">
         <v>136</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="63" ht="24.75" customHeight="1">
       <c r="A63" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="B63" s="8">
         <v>137</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="64" ht="25.5" customHeight="1">
       <c r="A64" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="B64" s="8">
         <v>138</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="A65" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="B65" s="8">
         <v>140</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="A66" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="B66" s="8">
         <v>141</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="67" ht="25.5" customHeight="1">
       <c r="A67" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="B67" s="8">
         <v>142</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="68" ht="24.75" customHeight="1">
       <c r="A68" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="B68" s="8">
         <v>144</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="A69" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="B69" s="8">
         <v>145</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="A70" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="B70" s="8">
         <v>147</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="A71" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="B71" s="8">
         <v>149</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="A72" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="B72" s="8">
         <v>150</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="A73" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="B73" s="8">
         <v>152</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="74" ht="25.5" customHeight="1">
       <c r="A74" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="B74" s="8">
         <v>155</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="75" ht="24.75" customHeight="1">
       <c r="A75" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="B75" s="8">
         <v>157</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="A76" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="B76" s="8">
         <v>159</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="A77" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="B77" s="8">
         <v>161</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="78" ht="24.75" customHeight="1">
       <c r="A78" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="B78" s="8">
         <v>162</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="A79" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="B79" s="8">
         <v>164</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="80" ht="24.75" customHeight="1">
       <c r="A80" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="B80" s="8">
         <v>165</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="81" ht="25.5" customHeight="1">
       <c r="A81" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="B81" s="8">
         <v>167</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="A82" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="B82" s="8">
         <v>168</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="83" ht="24.75" customHeight="1">
       <c r="A83" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="B83" s="8">
         <v>169</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="A84" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="B84" s="8">
         <v>171</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1">
       <c r="A85" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="B85" s="8">
         <v>173</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="86" ht="25.5" customHeight="1">
       <c r="A86" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="B86" s="8">
         <v>174</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="A87" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="B87" s="8">
         <v>175</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="88" ht="24.75" customHeight="1">
       <c r="A88" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="B88" s="8">
         <v>176</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="89" ht="25.5" customHeight="1">
       <c r="A89" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="B89" s="8">
         <v>177</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="90" ht="24.75" customHeight="1">
       <c r="A90" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="B90" s="8">
         <v>180</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="A91" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="B91" s="8">
         <v>182</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="A92" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="B92" s="8">
         <v>183</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="93" ht="24.75" customHeight="1">
       <c r="A93" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="B93" s="8">
         <v>184</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="A94" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="B94" s="8">
         <v>187</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="A95" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="B95" s="8">
         <v>188</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="A96" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="B96" s="8">
         <v>190</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="A97" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="B97" s="8">
         <v>193</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="98" ht="24.75" customHeight="1">
       <c r="A98" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="B98" s="8">
         <v>194</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="A99" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="B99" s="8">
         <v>196</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="100" ht="24.75" customHeight="1">
       <c r="A100" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="B100" s="8">
         <v>198</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="A101" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="B101" s="8">
         <v>200</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="A102" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="B102" s="8">
         <v>203</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="103" ht="24.75" customHeight="1">
       <c r="A103" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="B103" s="8">
         <v>204</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="104" ht="25.5" customHeight="1">
       <c r="A104" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="B104" s="8">
         <v>205</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="105" ht="24.75" customHeight="1">
       <c r="A105" s="7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="B105" s="8">
         <v>206</v>
